--- a/xlsx/生物燃料_intext.xlsx
+++ b/xlsx/生物燃料_intext.xlsx
@@ -29,7 +29,7 @@
     <t>可再生能源</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_生物燃料</t>
+    <t>政策_政策_混合动力车辆_生物燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E8%83%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_renewable_energy_topics_by_country</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E9%AB%94</t>
   </si>
   <si>
-    <t>固體</t>
+    <t>固体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E9%AB%94</t>
   </si>
   <si>
-    <t>液體</t>
+    <t>液体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>氣體</t>
+    <t>气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%92%B0%E5%A2%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>歐洲環境署</t>
+    <t>欧洲环境署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%AE%8A%E6%9A%96</t>
   </si>
   <si>
-    <t>全球變暖</t>
+    <t>全球变暖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%9F%B4%E6%B2%B9</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%B4</t>
   </si>
   <si>
-    <t>烴</t>
+    <t>烃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%AF%E4%BA%A4%E6%8F%9B%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>酯交換反應</t>
+    <t>酯交换反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E4%B9%99%E9%86%87</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%83%BD%E6%BA%90%E7%BD%B2</t>
   </si>
   <si>
-    <t>國際能源署</t>
+    <t>国际能源署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%B1%86</t>
   </si>
   <si>
-    <t>黃豆</t>
+    <t>黄豆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E8%8F%9C%E7%B1%BD</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>東南亞</t>
+    <t>东南亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%B0%E5%AD%90%E6%B2%B9</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E4%B8%9A</t>
@@ -305,43 +305,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%9E%E4%BE%BF</t>
   </si>
   <si>
-    <t>糞便</t>
+    <t>粪便</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9A%E9%A4%98</t>
   </si>
   <si>
-    <t>廚餘</t>
+    <t>厨馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>無氧消化</t>
+    <t>无氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生化氣體</t>
+    <t>生化气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E</t>
   </si>
   <si>
-    <t>藻類</t>
+    <t>藻类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8F%8C</t>
   </si>
   <si>
-    <t>藍菌</t>
+    <t>蓝菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E6%9F%B4%E6%B2%B9</t>
   </si>
   <si>
-    <t>生質柴油</t>
+    <t>生质柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%87</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E7%87%92</t>
   </si>
   <si>
-    <t>燃燒</t>
+    <t>燃烧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E5%8C%96%E7%87%83%E6%96%99</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%87%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>內燃機</t>
+    <t>内燃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%A5%A7%E6%89%98</t>
   </si>
   <si>
-    <t>尼古拉斯·奧托</t>
+    <t>尼古拉斯·奥托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%B4%E6%B2%B9%E5%BC%95%E6%93%8E</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E7%8B%84%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>魯道夫·狄塞爾</t>
+    <t>鲁道夫·狄塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E7%A6%8F%E7%89%B9</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%97%B2%E7%98%8B%E6%A8%B9</t>
   </si>
   <si>
-    <t>痲瘋樹</t>
+    <t>痲疯树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%90%E6%B2%B9%E6%A0%91</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E5%8C%96</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F</t>
   </si>
   <si>
-    <t>糧食</t>
+    <t>粮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%A3%81</t>
   </si>
   <si>
-    <t>細胞壁</t>
+    <t>细胞壁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%97%BB</t>
@@ -509,19 +509,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B3%AA%E8%83%BD</t>
   </si>
   <si>
-    <t>生物質能</t>
+    <t>生物质能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BD%9C%E7%89%A9</t>
   </si>
   <si>
-    <t>經濟作物</t>
+    <t>经济作物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lignocellulosic_biomass</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B9%E8%84%82%E8%86%8F</t>
   </si>
   <si>
-    <t>黃油脂膏</t>
+    <t>黄油脂膏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%8D%8B%E6%B2%B9</t>
   </si>
   <si>
-    <t>回鍋油</t>
+    <t>回锅油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%B2%9F%E6%B2%B9</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%95</t>
   </si>
   <si>
-    <t>烏桕</t>
+    <t>乌桕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E8%90%8D</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%82%E7%94%A8%E6%8A%80%E6%9C%AF</t>
@@ -875,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%BD%B1%E5%93%8D%E8%AF%84%E4%BB%B7</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
@@ -911,13 +911,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E6%93%B4%E6%95%A3%E6%A8%A1%E5%BC%8F</t>
   </si>
   <si>
-    <t>大氣擴散模式</t>
+    <t>大气扩散模式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業生態學</t>
+    <t>工业生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_solid_waste_treatment_technologies</t>
@@ -947,19 +947,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%B0%B4%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>污水處理</t>
+    <t>污水处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%B4%E8%99%95%E7%90%86%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>廢水處理技術列表</t>
+    <t>废水处理技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%A8%E5%8C%96</t>
   </si>
   <si>
-    <t>水淨化</t>
+    <t>水净化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%AA%E6%B5%81%E7%AB%99</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>可持續能源</t>
+    <t>可持续能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BB%AD%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%BB%9F</t>
@@ -1025,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>電動載具</t>
+    <t>电动载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
@@ -1043,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>自然建築</t>
+    <t>自然建筑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_architecture</t>
@@ -1061,19 +1061,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>保育倫理</t>
+    <t>保育伦理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ecoforestry</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%B6%AD%E8%AD%B7</t>
   </si>
   <si>
-    <t>環境維護</t>
+    <t>环境维护</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_remediation</t>
@@ -1103,31 +1103,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B8%E9%96%80</t>
   </si>
   <si>
-    <t>樸門</t>
+    <t>朴门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%BA%90%E5%9B%9E%E6%94%B6</t>
   </si>
   <si>
-    <t>資源回收</t>
+    <t>资源回收</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%8C%81%E7%BA%8C%E6%80%A7</t>
   </si>
   <si>
-    <t>可持續性</t>
+    <t>可持续性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
-    <t>綠色生活</t>
+    <t>绿色生活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%8B%E5%96%84</t>
   </si>
   <si>
-    <t>環境友善</t>
+    <t>环境友善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
@@ -1139,19 +1139,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%80%AB%E7%90%86</t>
   </si>
   <si>
-    <t>環境倫理</t>
+    <t>环境伦理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%92%B0%E5%A2%83%E8%88%87%E7%99%BC%E5%B1%95%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>里約環境與發展宣言</t>
+    <t>里约环境与发展宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%8F%BE%E4%BB%A3%E5%8C%96</t>
   </si>
   <si>
-    <t>生態現代化</t>
+    <t>生态现代化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3</t>
@@ -1163,13 +1163,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%94%9F%E8%82%B2</t>
   </si>
   <si>
-    <t>計劃生育</t>
+    <t>计划生育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -1181,43 +1181,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>消費</t>
+    <t>消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%B6%88%E8%B2%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反消費主義</t>
+    <t>反消费主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>生態足跡</t>
+    <t>生态足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E7%9F%A5%E6%B6%88%E8%B2%BB</t>
   </si>
   <si>
-    <t>良知消費</t>
+    <t>良知消费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%BA%A6%E6%B6%88%E8%80%97</t>
   </si>
   <si>
-    <t>過度消耗</t>
+    <t>过度消耗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%9C%B0%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
-    <t>公地悲劇</t>
+    <t>公地悲剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%A7%E9%A3%9F%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>糧食安全</t>
+    <t>粮食安全</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Local_food</t>
@@ -1229,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>永續農業</t>
+    <t>永续农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sustainable_fishery</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>水危機</t>
+    <t>水危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E6%B0%B4%E6%95%88%E7%8E%87</t>
@@ -1259,19 +1259,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E7%94%A8%E6%B0%B4</t>
   </si>
   <si>
-    <t>節約用水</t>
+    <t>节约用水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E8%B6%B3%E8%B7%A1</t>
   </si>
   <si>
-    <t>碳足跡</t>
+    <t>碳足迹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E6%B1%A1%E4%BA%A4%E6%98%93</t>
@@ -1283,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_descent</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>生物多樣性</t>
+    <t>生物多样性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%88</t>
@@ -1331,19 +1331,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E5%8D%B1%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>瀕危物種</t>
+    <t>濒危物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%B0%E4%B8%96%E6%BB%85%E7%B5%95%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>全新世滅絕事件</t>
+    <t>全新世灭绝事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>入侵物種</t>
+    <t>入侵物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%BB%B4%E6%8C%81%E4%BA%A7%E9%87%8F</t>
@@ -1361,13 +1361,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>永續運輸</t>
+    <t>永续运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%8C%96%E5%AD%A6</t>
@@ -1391,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%8F%B2</t>
   </si>
   <si>
-    <t>環境史</t>
+    <t>环境史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B3%95</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E7%8E%AF%E5%A2%83%E5%AE%A3%E8%A8%80</t>
@@ -1415,25 +1415,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%80%AB%E7%89%B9%E8%98%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>布倫特蘭委員會</t>
+    <t>布伦特兰委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E9%AB%98%E5%B3%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>地球高峰會</t>
+    <t>地球高峰会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E8%AD%B0%E7%A8%8B</t>
   </si>
   <si>
-    <t>21世紀議程</t>
+    <t>21世纪议程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>生物多樣性公約</t>
+    <t>生物多样性公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%AE%AA%E7%AB%A0</t>
@@ -1445,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>千禧年生態系統評估</t>
+    <t>千禧年生态系统评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E6%98%86%E5%AE%A3%E8%A8%80</t>
@@ -1457,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1469,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -8310,7 +8310,7 @@
         <v>434</v>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
